--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\144\Weekly144\Topic1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72616593-686D-4619-B7BE-FC9F11C00502}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6915" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22188" windowHeight="11508" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
     <sheet name="Alice Solution" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Click to watch</t>
   </si>
@@ -306,12 +314,66 @@
   <si>
     <t>Bonus)</t>
   </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>Cell Should Contain</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Excel Formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Height (inches)</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Explain your answer!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +419,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +441,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -456,6 +562,345 @@
       </right>
       <top/>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -466,7 +911,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -524,6 +969,160 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -556,8 +1155,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -939,26 +1538,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B298F987-F556-4CCC-9682-B9502E6E741F}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="23">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="23">
+        <v>2</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="46"/>
+      <c r="P15" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="47">
+        <v>1</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="15"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="55"/>
+    </row>
+    <row r="18" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="23">
+        <v>3</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="48">
+        <v>2</v>
+      </c>
+      <c r="O18" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="55"/>
+    </row>
+    <row r="19" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="55"/>
+    </row>
+    <row r="20" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="48">
+        <v>3</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="55"/>
+    </row>
+    <row r="21" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="55"/>
+    </row>
+    <row r="22" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="74"/>
+      <c r="N22" s="48">
+        <v>4</v>
+      </c>
+      <c r="O22" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="55"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="48"/>
+      <c r="O23" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="55"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="48">
+        <v>5</v>
+      </c>
+      <c r="O24" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="55"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G25" s="27"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="55"/>
+    </row>
+    <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="8"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="48">
+        <v>6</v>
+      </c>
+      <c r="O26" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="55"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="55"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="62"/>
+      <c r="N28" s="48">
+        <v>7</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="55"/>
+    </row>
+    <row r="29" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="55"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N30" s="48">
+        <v>8</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="55"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N31" s="48"/>
+      <c r="O31" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="55"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N32" s="48">
+        <v>9</v>
+      </c>
+      <c r="O32" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="55"/>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N33" s="48"/>
+      <c r="O33" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="55"/>
+    </row>
+    <row r="34" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N34" s="48">
+        <v>10</v>
+      </c>
+      <c r="O34" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="55"/>
+    </row>
+    <row r="35" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N35" s="48"/>
+      <c r="O35" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="55"/>
+    </row>
+    <row r="36" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N36" s="48">
+        <v>11</v>
+      </c>
+      <c r="O36" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="55"/>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N37" s="48"/>
+      <c r="O37" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="55"/>
+    </row>
+    <row r="38" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N38" s="48">
+        <v>12</v>
+      </c>
+      <c r="O38" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="55"/>
+    </row>
+    <row r="39" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N39" s="48"/>
+      <c r="O39" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="55"/>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N40" s="48">
+        <v>13</v>
+      </c>
+      <c r="O40" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="55"/>
+    </row>
+    <row r="41" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N41" s="48"/>
+      <c r="O41" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="55"/>
+    </row>
+    <row r="42" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N42" s="48">
+        <v>14</v>
+      </c>
+      <c r="O42" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="55"/>
+    </row>
+    <row r="43" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N43" s="48"/>
+      <c r="O43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="55"/>
+    </row>
+    <row r="44" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N44" s="48">
+        <v>15</v>
+      </c>
+      <c r="O44" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="55"/>
+    </row>
+    <row r="45" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N45" s="48"/>
+      <c r="O45" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="55"/>
+    </row>
+    <row r="46" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N46" s="48">
+        <v>16</v>
+      </c>
+      <c r="O46" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="55"/>
+    </row>
+    <row r="47" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N47" s="48"/>
+      <c r="O47" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="55"/>
+    </row>
+    <row r="48" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N48" s="48">
+        <v>17</v>
+      </c>
+      <c r="O48" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="55"/>
+    </row>
+    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N49" s="48"/>
+      <c r="O49" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" s="55"/>
+    </row>
+    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N50" s="48">
+        <v>18</v>
+      </c>
+      <c r="O50" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="55"/>
+    </row>
+    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N51" s="48"/>
+      <c r="O51" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="55"/>
+    </row>
+    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N52" s="48">
+        <v>19</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" s="55"/>
+    </row>
+    <row r="53" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N53" s="48"/>
+      <c r="O53" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="55"/>
+    </row>
+    <row r="54" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N54" s="48">
+        <v>20</v>
+      </c>
+      <c r="O54" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="55"/>
+    </row>
+    <row r="55" spans="14:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N55" s="49"/>
+      <c r="O55" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G27:L29"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="H8:M9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:M19"/>
+    <mergeCell ref="G11:M13"/>
+    <mergeCell ref="H15:M17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H24:M26"/>
+    <mergeCell ref="G24:G25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348710A-DC6E-4A3A-9ECE-3484E9D77642}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -976,8 +2280,15 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="17">
+        <f>45*12/3 - 1</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -992,7 +2303,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1007,7 +2318,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1024,7 +2335,7 @@
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1039,7 +2350,7 @@
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1054,7 +2365,7 @@
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1069,7 +2380,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1087,338 +2398,6 @@
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="23">
-        <v>3</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="8"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H15:M17"/>
-    <mergeCell ref="G15:G16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348710A-DC6E-4A3A-9ECE-3484E9D77642}">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="17">
-        <f>45*12/3 - 1</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="23">
-        <v>2</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
       <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +2408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1451,7 +2430,7 @@
         <v>38.06155888966564</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1466,7 +2445,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1496,7 +2475,7 @@
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1517,7 +2496,7 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +2519,7 @@
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1565,7 +2544,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G16" s="27"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -1574,7 +2553,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -1594,7 +2573,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
     </row>
-    <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="16"/>
@@ -1609,7 +2588,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1624,7 +2603,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -1638,7 +2617,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="29"/>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1654,11 +2633,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:M17"/>
@@ -1666,6 +2640,11 @@
     <mergeCell ref="O17:T21"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:M13"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="G5:M7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>

--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72616593-686D-4619-B7BE-FC9F11C00502}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7647C7D9-FAD6-45D3-8BD6-DD95A87E2D8B}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22188" windowHeight="11508" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
+    <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Click to watch</t>
   </si>
@@ -368,6 +368,9 @@
   <si>
     <t>Explain your answer!</t>
   </si>
+  <si>
+    <t>Video on making this table.</t>
+  </si>
 </sst>
 </file>
 
@@ -911,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -943,32 +946,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,114 +1031,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,6 +1071,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1538,104 +1545,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B298F987-F556-4CCC-9682-B9502E6E741F}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1643,43 +1651,43 @@
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="23">
+      <c r="G8" s="71">
         <v>1</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="71"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1694,61 +1702,67 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="78"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1757,464 +1771,465 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="43" t="s">
+      <c r="O14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+    <row r="15" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="23">
+      <c r="G15" s="71">
         <v>2</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="45" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="53">
+      <c r="O15" s="33"/>
+      <c r="P15" s="40">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="47">
+    <row r="16" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="71"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="34">
         <v>1</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="54"/>
-    </row>
-    <row r="17" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="15"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="51" t="s">
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="55"/>
-    </row>
-    <row r="18" spans="3:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="23">
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="71">
         <v>3</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="48">
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="35">
         <v>2</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="O18" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="55"/>
-    </row>
-    <row r="19" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="51" t="s">
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="55"/>
-    </row>
-    <row r="20" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="48">
+      <c r="N20" s="35">
         <v>3</v>
       </c>
-      <c r="O20" s="51" t="s">
+      <c r="O20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="55"/>
-    </row>
-    <row r="21" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="75" t="s">
+      <c r="P20" s="42"/>
+    </row>
+    <row r="21" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="51" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="55"/>
-    </row>
-    <row r="22" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
-      <c r="N22" s="48">
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56"/>
+      <c r="N22" s="35">
         <v>4</v>
       </c>
-      <c r="O22" s="51" t="s">
+      <c r="O22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="55"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="N23" s="48"/>
-      <c r="O23" s="51" t="s">
+      <c r="P22" s="42"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="35"/>
+      <c r="O23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="55"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G24" s="27" t="s">
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G24" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="48">
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="35">
         <v>5</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="55"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G25" s="27"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="51" t="s">
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="75"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="55"/>
-    </row>
-    <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="48">
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="35">
         <v>6</v>
       </c>
-      <c r="O26" s="51" t="s">
+      <c r="O26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="55"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="51" t="s">
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="62"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="55"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62"/>
-      <c r="N28" s="48">
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="N28" s="35">
         <v>7</v>
       </c>
-      <c r="O28" s="51" t="s">
+      <c r="O28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="55"/>
-    </row>
-    <row r="29" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="51" t="s">
+      <c r="P28" s="42"/>
+    </row>
+    <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="68"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="55"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="N30" s="48">
+      <c r="P29" s="42"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="35">
         <v>8</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="O30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="55"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="N31" s="48"/>
-      <c r="O31" s="51" t="s">
+      <c r="P30" s="42"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="35"/>
+      <c r="O31" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P31" s="55"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="N32" s="48">
+      <c r="P31" s="42"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N32" s="35">
         <v>9</v>
       </c>
-      <c r="O32" s="51" t="s">
+      <c r="O32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="55"/>
-    </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N33" s="48"/>
-      <c r="O33" s="51" t="s">
+      <c r="P32" s="42"/>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N33" s="35"/>
+      <c r="O33" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="55"/>
-    </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N34" s="48">
+      <c r="P33" s="42"/>
+    </row>
+    <row r="34" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N34" s="35">
         <v>10</v>
       </c>
-      <c r="O34" s="51" t="s">
+      <c r="O34" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="55"/>
-    </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N35" s="48"/>
-      <c r="O35" s="51" t="s">
+      <c r="P34" s="42"/>
+    </row>
+    <row r="35" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N35" s="35"/>
+      <c r="O35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P35" s="55"/>
-    </row>
-    <row r="36" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N36" s="48">
+      <c r="P35" s="42"/>
+    </row>
+    <row r="36" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N36" s="35">
         <v>11</v>
       </c>
-      <c r="O36" s="51" t="s">
+      <c r="O36" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P36" s="55"/>
-    </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N37" s="48"/>
-      <c r="O37" s="51" t="s">
+      <c r="P36" s="42"/>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N37" s="35"/>
+      <c r="O37" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="55"/>
-    </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N38" s="48">
+      <c r="P37" s="42"/>
+    </row>
+    <row r="38" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N38" s="35">
         <v>12</v>
       </c>
-      <c r="O38" s="51" t="s">
+      <c r="O38" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P38" s="55"/>
-    </row>
-    <row r="39" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N39" s="48"/>
-      <c r="O39" s="51" t="s">
+      <c r="P38" s="42"/>
+    </row>
+    <row r="39" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N39" s="35"/>
+      <c r="O39" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P39" s="55"/>
-    </row>
-    <row r="40" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N40" s="48">
+      <c r="P39" s="42"/>
+    </row>
+    <row r="40" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N40" s="35">
         <v>13</v>
       </c>
-      <c r="O40" s="51" t="s">
+      <c r="O40" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="55"/>
-    </row>
-    <row r="41" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N41" s="48"/>
-      <c r="O41" s="51" t="s">
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N41" s="35"/>
+      <c r="O41" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P41" s="55"/>
-    </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N42" s="48">
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N42" s="35">
         <v>14</v>
       </c>
-      <c r="O42" s="51" t="s">
+      <c r="O42" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="55"/>
-    </row>
-    <row r="43" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N43" s="48"/>
-      <c r="O43" s="51" t="s">
+      <c r="P42" s="42"/>
+    </row>
+    <row r="43" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N43" s="35"/>
+      <c r="O43" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="55"/>
-    </row>
-    <row r="44" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N44" s="48">
+      <c r="P43" s="42"/>
+    </row>
+    <row r="44" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N44" s="35">
         <v>15</v>
       </c>
-      <c r="O44" s="51" t="s">
+      <c r="O44" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P44" s="55"/>
-    </row>
-    <row r="45" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N45" s="48"/>
-      <c r="O45" s="51" t="s">
+      <c r="P44" s="42"/>
+    </row>
+    <row r="45" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N45" s="35"/>
+      <c r="O45" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="55"/>
-    </row>
-    <row r="46" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N46" s="48">
+      <c r="P45" s="42"/>
+    </row>
+    <row r="46" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N46" s="35">
         <v>16</v>
       </c>
-      <c r="O46" s="51" t="s">
+      <c r="O46" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P46" s="55"/>
-    </row>
-    <row r="47" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N47" s="48"/>
-      <c r="O47" s="51" t="s">
+      <c r="P46" s="42"/>
+    </row>
+    <row r="47" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N47" s="35"/>
+      <c r="O47" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P47" s="55"/>
-    </row>
-    <row r="48" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N48" s="48">
+      <c r="P47" s="42"/>
+    </row>
+    <row r="48" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N48" s="35">
         <v>17</v>
       </c>
-      <c r="O48" s="51" t="s">
+      <c r="O48" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P48" s="55"/>
-    </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N49" s="48"/>
-      <c r="O49" s="51" t="s">
+      <c r="P48" s="42"/>
+    </row>
+    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N49" s="35"/>
+      <c r="O49" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P49" s="55"/>
-    </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N50" s="48">
+      <c r="P49" s="42"/>
+    </row>
+    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N50" s="35">
         <v>18</v>
       </c>
-      <c r="O50" s="51" t="s">
+      <c r="O50" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P50" s="55"/>
-    </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N51" s="48"/>
-      <c r="O51" s="51" t="s">
+      <c r="P50" s="42"/>
+    </row>
+    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N51" s="35"/>
+      <c r="O51" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="55"/>
-    </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N52" s="48">
+      <c r="P51" s="42"/>
+    </row>
+    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N52" s="35">
         <v>19</v>
       </c>
-      <c r="O52" s="51" t="s">
+      <c r="O52" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P52" s="55"/>
-    </row>
-    <row r="53" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N53" s="48"/>
-      <c r="O53" s="51" t="s">
+      <c r="P52" s="42"/>
+    </row>
+    <row r="53" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N53" s="35"/>
+      <c r="O53" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="55"/>
-    </row>
-    <row r="54" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N54" s="48">
+      <c r="P53" s="42"/>
+    </row>
+    <row r="54" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N54" s="35">
         <v>20</v>
       </c>
-      <c r="O54" s="51" t="s">
+      <c r="O54" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P54" s="55"/>
-    </row>
-    <row r="55" spans="14:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N55" s="49"/>
-      <c r="O55" s="52" t="s">
+      <c r="P54" s="42"/>
+    </row>
+    <row r="55" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="36"/>
+      <c r="O55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="P55" s="56"/>
+      <c r="P55" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="G20:L22"/>
@@ -2248,13 +2263,13 @@
       <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2262,24 +2277,24 @@
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="23">
+      <c r="G2" s="71">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
@@ -2288,22 +2303,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G3" s="71"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2318,54 +2333,54 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2380,24 +2395,24 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="23">
+      <c r="G9" s="71">
         <v>2</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2408,20 +2423,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
       <c r="O10" s="18" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>38.06155888966564</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2438,72 +2453,72 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="23">
+      <c r="G12" s="71">
         <v>3</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+    </row>
+    <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2512,68 +2527,68 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+    </row>
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="75"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="8"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-    </row>
-    <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+    </row>
+    <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="16"/>
@@ -2581,14 +2596,14 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -2596,40 +2611,40 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7647C7D9-FAD6-45D3-8BD6-DD95A87E2D8B}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A449A43-9B62-4ACC-9911-292D3B04ED87}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
+    <workbookView xWindow="1230" yWindow="900" windowWidth="21795" windowHeight="13530" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
@@ -1023,6 +1023,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1126,10 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,10 +1568,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1658,19 +1658,19 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="71">
+      <c r="G8" s="73">
         <v>1</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1679,13 +1679,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1709,15 +1709,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1726,13 +1726,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -1741,28 +1741,28 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="79" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="78"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1782,23 +1782,23 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="71">
+      <c r="G15" s="73">
         <v>2</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>29</v>
       </c>
@@ -1808,13 +1808,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="71"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="34">
         <v>1</v>
       </c>
@@ -1825,12 +1825,12 @@
     </row>
     <row r="17" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="15"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="35"/>
       <c r="O17" s="38" t="s">
         <v>31</v>
@@ -1838,17 +1838,17 @@
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="71">
+      <c r="G18" s="73">
         <v>3</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="35">
         <v>2</v>
       </c>
@@ -1858,13 +1858,13 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="35"/>
       <c r="O19" s="38" t="s">
         <v>31</v>
@@ -1872,12 +1872,12 @@
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="8"/>
       <c r="N20" s="35">
         <v>3</v>
@@ -1888,18 +1888,18 @@
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
       <c r="N21" s="35"/>
       <c r="O21" s="38" t="s">
         <v>31</v>
@@ -1907,12 +1907,12 @@
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
       <c r="N22" s="35">
         <v>4</v>
       </c>
@@ -1929,17 +1929,17 @@
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="35">
         <v>5</v>
       </c>
@@ -1949,13 +1949,13 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="75"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
       <c r="N25" s="35"/>
       <c r="O25" s="38" t="s">
         <v>31</v>
@@ -1964,12 +1964,12 @@
     </row>
     <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="35">
         <v>6</v>
       </c>
@@ -1979,12 +1979,12 @@
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="N27" s="35"/>
       <c r="O27" s="38" t="s">
         <v>31</v>
@@ -1992,12 +1992,12 @@
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
       <c r="N28" s="35">
         <v>7</v>
       </c>
@@ -2007,12 +2007,12 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
       <c r="N29" s="35"/>
       <c r="O29" s="38" t="s">
         <v>31</v>
@@ -2229,11 +2229,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="C21:F21"/>
     <mergeCell ref="G27:L29"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="H8:M9"/>
@@ -2245,13 +2240,19 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H24:M26"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
+    <hyperlink ref="N13:P13" r:id="rId2" display="Video on making this table." xr:uid="{BB661EAE-1C1D-4531-A740-68A57E2568AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2284,17 +2285,17 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="71">
+      <c r="G2" s="73">
         <v>1</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
@@ -2310,13 +2311,13 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -2340,15 +2341,15 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2357,13 +2358,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -2372,13 +2373,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2402,17 +2403,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="71">
+      <c r="G9" s="73">
         <v>2</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2430,13 +2431,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
       <c r="O10" s="18" t="s">
         <v>8</v>
       </c>
@@ -2453,12 +2454,12 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -2467,28 +2468,28 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="71">
+      <c r="G12" s="73">
         <v>3</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="76" t="s">
+      <c r="O12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -2497,28 +2498,28 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2527,66 +2528,66 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="75"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="8"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="77" t="s">
+      <c r="O17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
     </row>
     <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="8"/>
@@ -2596,12 +2597,12 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19" s="15"/>
@@ -2611,12 +2612,12 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="H20" s="13"/>
@@ -2625,12 +2626,12 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="H21" s="13"/>
@@ -2639,15 +2640,20 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="G5:M7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:M17"/>
@@ -2655,11 +2661,6 @@
     <mergeCell ref="O17:T21"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:M13"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>

--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="10_ncr:100000_{16823D1E-2B28-49AA-B641-36C17A53F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A449A43-9B62-4ACC-9911-292D3B04ED87}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9985C17-C1D4-4218-9478-3F91CDB44D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="900" windowWidth="21795" windowHeight="13530" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="22845" windowHeight="12240" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
     <sheet name="Alice Solution" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" mergeInterval="0" personalView="1" xWindow="182" yWindow="182" windowWidth="1523" windowHeight="816" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Click to watch</t>
   </si>
@@ -371,6 +374,9 @@
   <si>
     <t>Video on making this table.</t>
   </si>
+  <si>
+    <t>Is there a combination of bites will bring Alice back exactly to her original height if she starts with one bite from the right?</t>
+  </si>
 </sst>
 </file>
 
@@ -1024,6 +1030,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,54 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1246,6 +1252,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{41358121-37BB-4A11-90B5-1FF6C910C53B}">
+  <header guid="{41358121-37BB-4A11-90B5-1FF6C910C53B}" dateTime="2021-06-13T21:08:24" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{41358121-37BB-4A11-90B5-1FF6C910C53B}" name="Richard Ketchersid" id="-1739541853" dateTime="2021-06-13T21:08:24"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1547,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B298F987-F556-4CCC-9682-B9502E6E741F}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,10 +1595,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1658,19 +1685,19 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="73">
+      <c r="G8" s="56">
         <v>1</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1679,13 +1706,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1709,15 +1736,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1726,13 +1753,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -1741,28 +1768,28 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="45" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1782,23 +1809,23 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="73">
+      <c r="G15" s="56">
         <v>2</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="32" t="s">
         <v>29</v>
       </c>
@@ -1808,13 +1835,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="73"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="34">
         <v>1</v>
       </c>
@@ -1825,12 +1852,12 @@
     </row>
     <row r="17" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="15"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="35"/>
       <c r="O17" s="38" t="s">
         <v>31</v>
@@ -1838,17 +1865,17 @@
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="73">
+      <c r="G18" s="56">
         <v>3</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="35">
         <v>2</v>
       </c>
@@ -1858,13 +1885,13 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="35"/>
       <c r="O19" s="38" t="s">
         <v>31</v>
@@ -1872,12 +1899,12 @@
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="8"/>
       <c r="N20" s="35">
         <v>3</v>
@@ -1888,18 +1915,18 @@
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
       <c r="N21" s="35"/>
       <c r="O21" s="38" t="s">
         <v>31</v>
@@ -1907,12 +1934,12 @@
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="74"/>
       <c r="N22" s="35">
         <v>4</v>
       </c>
@@ -1929,17 +1956,17 @@
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
+      <c r="H24" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="35">
         <v>5</v>
       </c>
@@ -1949,13 +1976,13 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="77"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="35"/>
       <c r="O25" s="38" t="s">
         <v>31</v>
@@ -1964,12 +1991,12 @@
     </row>
     <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="35">
         <v>6</v>
       </c>
@@ -1979,12 +2006,12 @@
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
       <c r="N27" s="35"/>
       <c r="O27" s="38" t="s">
         <v>31</v>
@@ -1992,12 +2019,12 @@
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
       <c r="N28" s="35">
         <v>7</v>
       </c>
@@ -2007,12 +2034,12 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
       <c r="N29" s="35"/>
       <c r="O29" s="38" t="s">
         <v>31</v>
@@ -2228,7 +2255,19 @@
       <c r="P55" s="43"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" topLeftCell="A7">
+      <selection activeCell="C28" sqref="C28"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="16">
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="G27:L29"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="H8:M9"/>
@@ -2240,19 +2279,14 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H24:M26"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
-    <hyperlink ref="N13:P13" r:id="rId2" display="Video on making this table." xr:uid="{BB661EAE-1C1D-4531-A740-68A57E2568AE}"/>
+    <hyperlink ref="A14:E15" r:id="rId2" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
+    <hyperlink ref="N13:P13" r:id="rId3" display="Video on making this table." xr:uid="{BB661EAE-1C1D-4531-A740-68A57E2568AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2285,17 +2319,17 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="73">
+      <c r="G2" s="56">
         <v>1</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
@@ -2311,13 +2345,13 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -2341,15 +2375,15 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2358,13 +2392,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -2373,13 +2407,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2403,17 +2437,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="73">
+      <c r="G9" s="56">
         <v>2</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2431,13 +2465,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
       <c r="O10" s="18" t="s">
         <v>8</v>
       </c>
@@ -2454,12 +2488,12 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -2468,17 +2502,17 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="73">
+      <c r="G12" s="56">
         <v>3</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
       <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
@@ -2498,13 +2532,13 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="O13" s="78"/>
       <c r="P13" s="78"/>
       <c r="Q13" s="78"/>
@@ -2513,13 +2547,13 @@
       <c r="T13" s="78"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2536,23 +2570,23 @@
       <c r="T14" s="78"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
       <c r="O15" s="78"/>
       <c r="P15" s="78"/>
       <c r="Q15" s="78"/>
@@ -2561,22 +2595,22 @@
       <c r="T15" s="78"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="77"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="8"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="20" t="s">
         <v>14</v>
       </c>
@@ -2648,12 +2682,13 @@
       <c r="T21" s="79"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" state="hidden">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="12">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:M17"/>
@@ -2661,6 +2696,11 @@
     <mergeCell ref="O17:T21"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:M13"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="G5:M7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>

--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9985C17-C1D4-4218-9478-3F91CDB44D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{491A9554-D89C-496A-AE44-65333624E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="22845" windowHeight="12240" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
-    <sheet name="Alice Solution" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Alice Solution" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Click to watch</t>
   </si>
@@ -377,12 +378,15 @@
   <si>
     <t>Is there a combination of bites will bring Alice back exactly to her original height if she starts with one bite from the right?</t>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +435,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -920,7 +932,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1030,54 +1042,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,11 +1095,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,11 +1270,12 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{41358121-37BB-4A11-90B5-1FF6C910C53B}">
-  <header guid="{41358121-37BB-4A11-90B5-1FF6C910C53B}" dateTime="2021-06-13T21:08:24" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}">
+  <header guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}" dateTime="2022-07-20T13:49:54" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
+      <sheetId val="3"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1271,7 +1287,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{41358121-37BB-4A11-90B5-1FF6C910C53B}" name="Richard Ketchersid" id="-1739541853" dateTime="2021-06-13T21:08:24"/>
+  <userInfo guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}" name="Richard Ketchersid" id="-1739552209" dateTime="2022-07-20T13:49:54"/>
 </users>
 </file>
 
@@ -1595,10 +1611,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="63"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1685,19 +1701,19 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="56">
+      <c r="G8" s="73">
         <v>1</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1706,13 +1722,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1736,15 +1752,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1753,13 +1769,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -1768,28 +1784,28 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="61" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1809,23 +1825,23 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="56">
+      <c r="G15" s="73">
         <v>2</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>29</v>
       </c>
@@ -1835,13 +1851,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="56"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="34">
         <v>1</v>
       </c>
@@ -1852,12 +1868,12 @@
     </row>
     <row r="17" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="15"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="35"/>
       <c r="O17" s="38" t="s">
         <v>31</v>
@@ -1865,17 +1881,17 @@
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="56">
+      <c r="G18" s="73">
         <v>3</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="35">
         <v>2</v>
       </c>
@@ -1885,13 +1901,13 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="35"/>
       <c r="O19" s="38" t="s">
         <v>31</v>
@@ -1899,12 +1915,12 @@
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="8"/>
       <c r="N20" s="35">
         <v>3</v>
@@ -1915,18 +1931,18 @@
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
       <c r="N21" s="35"/>
       <c r="O21" s="38" t="s">
         <v>31</v>
@@ -1934,12 +1950,12 @@
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
       <c r="N22" s="35">
         <v>4</v>
       </c>
@@ -1956,17 +1972,17 @@
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="35">
         <v>5</v>
       </c>
@@ -1976,13 +1992,13 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="60"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
       <c r="N25" s="35"/>
       <c r="O25" s="38" t="s">
         <v>31</v>
@@ -1991,12 +2007,12 @@
     </row>
     <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="35">
         <v>6</v>
       </c>
@@ -2006,12 +2022,12 @@
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="N27" s="35"/>
       <c r="O27" s="38" t="s">
         <v>31</v>
@@ -2019,12 +2035,12 @@
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
       <c r="N28" s="35">
         <v>7</v>
       </c>
@@ -2034,12 +2050,12 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
       <c r="N29" s="35"/>
       <c r="O29" s="38" t="s">
         <v>31</v>
@@ -2263,11 +2279,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="C21:F21"/>
     <mergeCell ref="G27:L29"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="H8:M9"/>
@@ -2279,6 +2290,11 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H24:M26"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId2" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
@@ -2291,6 +2307,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2606F8B-623A-4F6E-BCAE-A82BB43B0160}">
+  <dimension ref="C3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" state="hidden">
+      <selection activeCell="I12" sqref="I12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C3:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348710A-DC6E-4A3A-9ECE-3484E9D77642}">
   <dimension ref="A1:T21"/>
   <sheetViews>
@@ -2319,17 +2412,17 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="56">
+      <c r="G2" s="73">
         <v>1</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
@@ -2345,13 +2438,13 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -2375,15 +2468,15 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2392,13 +2485,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -2407,13 +2500,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2437,17 +2530,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="56">
+      <c r="G9" s="73">
         <v>2</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2465,13 +2558,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
       <c r="O10" s="18" t="s">
         <v>8</v>
       </c>
@@ -2488,12 +2581,12 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -2502,17 +2595,17 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="56">
+      <c r="G12" s="73">
         <v>3</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
@@ -2532,13 +2625,13 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
       <c r="O13" s="78"/>
       <c r="P13" s="78"/>
       <c r="Q13" s="78"/>
@@ -2547,13 +2640,13 @@
       <c r="T13" s="78"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2570,23 +2663,23 @@
       <c r="T14" s="78"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
       <c r="O15" s="78"/>
       <c r="P15" s="78"/>
       <c r="Q15" s="78"/>
@@ -2595,22 +2688,22 @@
       <c r="T15" s="78"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="60"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="8"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="20" t="s">
         <v>14</v>
       </c>
@@ -2689,6 +2782,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="G5:M7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:M17"/>
@@ -2696,11 +2794,6 @@
     <mergeCell ref="O17:T21"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:M13"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>

--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{491A9554-D89C-496A-AE44-65333624E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E4023480-ADD2-4995-93E3-8ECF1EF75DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="22845" windowHeight="12240" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
+    <workbookView xWindow="2184" yWindow="2184" windowWidth="18276" windowHeight="9792" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alice" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Alice Solution" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Alice Solution" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -1042,6 +1042,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,52 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,9 +1151,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1270,12 +1270,26 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{469BFBDD-DFBC-4849-8BBE-E933315D76F2}" diskRevisions="1" version="3">
   <header guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}" dateTime="2022-07-20T13:49:54" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{390EEBA1-4718-4AD4-B47A-3CE152A57836}" dateTime="2022-09-13T14:35:46" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{469BFBDD-DFBC-4849-8BBE-E933315D76F2}" dateTime="2022-09-13T14:36:21" maxSheetId="4" userName="Richard Ketchersid" r:id="rId3">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1285,9 +1299,24 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" action="delete"/>
+  <rcv guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" action="delete"/>
+  <rcv guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}" name="Richard Ketchersid" id="-1739552209" dateTime="2022-07-20T13:49:54"/>
+  <userInfo guid="{469BFBDD-DFBC-4849-8BBE-E933315D76F2}" name="Richard Ketchersid" id="-1739542279" dateTime="2022-09-13T14:34:27"/>
 </users>
 </file>
 
@@ -1594,29 +1623,29 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1630,7 +1659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1644,7 +1673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1658,7 +1687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1672,7 +1701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1686,7 +1715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1694,43 +1723,43 @@
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="73">
+      <c r="G8" s="56">
         <v>1</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
-    </row>
-    <row r="9" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-    </row>
-    <row r="10" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1745,67 +1774,67 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-    </row>
-    <row r="12" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-    </row>
-    <row r="13" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="45" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
       <c r="Q13" s="44"/>
     </row>
-    <row r="14" spans="1:17" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1824,24 +1853,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+    <row r="15" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="73">
+      <c r="G15" s="56">
         <v>2</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="32" t="s">
         <v>29</v>
       </c>
@@ -1850,14 +1879,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="73"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+    <row r="16" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="56"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="34">
         <v>1</v>
       </c>
@@ -1866,32 +1895,32 @@
       </c>
       <c r="P16" s="41"/>
     </row>
-    <row r="17" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="15"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="35"/>
       <c r="O17" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P17" s="42"/>
     </row>
-    <row r="18" spans="3:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="73">
+    <row r="18" spans="3:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="56">
         <v>3</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="35">
         <v>2</v>
       </c>
@@ -1900,27 +1929,27 @@
       </c>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
+    <row r="19" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
       <c r="N19" s="35"/>
       <c r="O19" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P19" s="42"/>
     </row>
-    <row r="20" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+    <row r="20" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="8"/>
       <c r="N20" s="35">
         <v>3</v>
@@ -1930,32 +1959,32 @@
       </c>
       <c r="P20" s="42"/>
     </row>
-    <row r="21" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="59" t="s">
+    <row r="21" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
       <c r="N21" s="35"/>
       <c r="O21" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" spans="3:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
+    <row r="22" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="74"/>
       <c r="N22" s="35">
         <v>4</v>
       </c>
@@ -1964,25 +1993,25 @@
       </c>
       <c r="P22" s="42"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="N23" s="35"/>
       <c r="O23" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="77" t="s">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="35">
         <v>5</v>
       </c>
@@ -1991,28 +2020,28 @@
       </c>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="77"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G25" s="60"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="35"/>
       <c r="O25" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P25" s="42"/>
     </row>
-    <row r="26" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="8"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="35">
         <v>6</v>
       </c>
@@ -2021,26 +2050,26 @@
       </c>
       <c r="P26" s="42"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
       <c r="N27" s="35"/>
       <c r="O27" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P27" s="42"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
       <c r="N28" s="35">
         <v>7</v>
       </c>
@@ -2049,20 +2078,20 @@
       </c>
       <c r="P28" s="42"/>
     </row>
-    <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
+    <row r="29" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
       <c r="N29" s="35"/>
       <c r="O29" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P29" s="42"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="N30" s="35">
         <v>8</v>
       </c>
@@ -2071,14 +2100,14 @@
       </c>
       <c r="P30" s="42"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="N31" s="35"/>
       <c r="O31" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P31" s="42"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="N32" s="35">
         <v>9</v>
       </c>
@@ -2087,14 +2116,14 @@
       </c>
       <c r="P32" s="42"/>
     </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N33" s="35"/>
       <c r="O33" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="42"/>
     </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N34" s="35">
         <v>10</v>
       </c>
@@ -2103,14 +2132,14 @@
       </c>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N35" s="35"/>
       <c r="O35" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N36" s="35">
         <v>11</v>
       </c>
@@ -2119,14 +2148,14 @@
       </c>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N37" s="35"/>
       <c r="O37" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N38" s="35">
         <v>12</v>
       </c>
@@ -2135,14 +2164,14 @@
       </c>
       <c r="P38" s="42"/>
     </row>
-    <row r="39" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N39" s="35"/>
       <c r="O39" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N40" s="35">
         <v>13</v>
       </c>
@@ -2151,14 +2180,14 @@
       </c>
       <c r="P40" s="42"/>
     </row>
-    <row r="41" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N41" s="35"/>
       <c r="O41" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P41" s="42"/>
     </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N42" s="35">
         <v>14</v>
       </c>
@@ -2167,14 +2196,14 @@
       </c>
       <c r="P42" s="42"/>
     </row>
-    <row r="43" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N43" s="35"/>
       <c r="O43" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P43" s="42"/>
     </row>
-    <row r="44" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N44" s="35">
         <v>15</v>
       </c>
@@ -2183,14 +2212,14 @@
       </c>
       <c r="P44" s="42"/>
     </row>
-    <row r="45" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N45" s="35"/>
       <c r="O45" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P45" s="42"/>
     </row>
-    <row r="46" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N46" s="35">
         <v>16</v>
       </c>
@@ -2199,14 +2228,14 @@
       </c>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N47" s="35"/>
       <c r="O47" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P47" s="42"/>
     </row>
-    <row r="48" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N48" s="35">
         <v>17</v>
       </c>
@@ -2215,14 +2244,14 @@
       </c>
       <c r="P48" s="42"/>
     </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N49" s="35"/>
       <c r="O49" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P49" s="42"/>
     </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N50" s="35">
         <v>18</v>
       </c>
@@ -2231,14 +2260,14 @@
       </c>
       <c r="P50" s="42"/>
     </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N51" s="35"/>
       <c r="O51" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P51" s="42"/>
     </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N52" s="35">
         <v>19</v>
       </c>
@@ -2247,14 +2276,14 @@
       </c>
       <c r="P52" s="42"/>
     </row>
-    <row r="53" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N53" s="35"/>
       <c r="O53" s="38" t="s">
         <v>31</v>
       </c>
       <c r="P53" s="42"/>
     </row>
-    <row r="54" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N54" s="35">
         <v>20</v>
       </c>
@@ -2263,7 +2292,7 @@
       </c>
       <c r="P54" s="42"/>
     </row>
-    <row r="55" spans="14:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N55" s="36"/>
       <c r="O55" s="39" t="s">
         <v>31</v>
@@ -2279,6 +2308,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="G27:L29"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="H8:M9"/>
@@ -2290,11 +2324,6 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H24:M26"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId2" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
@@ -2307,6 +2336,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348710A-DC6E-4A3A-9ECE-3484E9D77642}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="56">
+        <v>1</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="17">
+        <f>45*12/3 - 1</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="56">
+        <v>2</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="O10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="19">
+        <f>P9*((1 + 0.15)*(1 - 0.15))^20</f>
+        <v>38.06155888966564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="56">
+        <v>3</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+    </row>
+    <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+    </row>
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G16" s="60"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G17" s="8"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+    </row>
+    <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" state="hidden">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="12">
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:M17"/>
+    <mergeCell ref="O12:T15"/>
+    <mergeCell ref="O17:T21"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="G5:M7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:M11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2606F8B-623A-4F6E-BCAE-A82BB43B0160}">
   <dimension ref="C3:G9"/>
   <sheetViews>
@@ -2314,58 +2763,58 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="80" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2381,424 +2830,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348710A-DC6E-4A3A-9ECE-3484E9D77642}">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="73">
-        <v>1</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="17">
-        <f>45*12/3 - 1</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="73">
-        <v>2</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="O10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="19">
-        <f>P9*((1 + 0.15)*(1 - 0.15))^20</f>
-        <v>38.06155888966564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-    </row>
-    <row r="12" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="73">
-        <v>3</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-    </row>
-    <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-    </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="77"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G17" s="8"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-    </row>
-    <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" state="hidden">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="12">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:M17"/>
-    <mergeCell ref="O12:T15"/>
-    <mergeCell ref="O17:T21"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:M13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/144F20/Topic 2/Alice.xlsx
+++ b/144F20/Topic 2/Alice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E4023480-ADD2-4995-93E3-8ECF1EF75DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{B75C2242-3907-423B-8810-9E06E3ED29FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2184" yWindow="2184" windowWidth="18276" windowHeight="9792" xr2:uid="{90886AF2-19F7-4187-A913-E899FCC5454E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Click to watch</t>
   </si>
@@ -376,10 +376,36 @@
     <t>Video on making this table.</t>
   </si>
   <si>
-    <t>Is there a combination of bites will bring Alice back exactly to her original height if she starts with one bite from the right?</t>
-  </si>
-  <si>
     <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
+  <si>
+    <t>Alice eats one bite from the right side and grows from 3" (3 inches) to 45' (45 feet). What percentage change is this?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is there a combination of bites will bring Alice back </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exactly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to her original height if she starts with one bite from the right?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -932,7 +958,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1042,54 +1068,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,14 +1121,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1270,7 +1299,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{469BFBDD-DFBC-4849-8BBE-E933315D76F2}" diskRevisions="1" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8F3E5DE7-53A7-4B6B-A474-2225533A3518}" diskRevisions="1" revisionId="2" version="4">
   <header guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}" dateTime="2022-07-20T13:49:54" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -1286,6 +1315,13 @@
     </sheetIdMap>
   </header>
   <header guid="{469BFBDD-DFBC-4849-8BBE-E933315D76F2}" dateTime="2022-09-13T14:36:21" maxSheetId="4" userName="Richard Ketchersid" r:id="rId3">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8F3E5DE7-53A7-4B6B-A474-2225533A3518}" dateTime="2023-01-18T18:04:47" maxSheetId="4" userName="Richard Ketchersid" r:id="rId4" minRId="1" maxRId="2">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="3"/>
@@ -1313,10 +1349,68 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="H8" t="inlineStr">
+      <is>
+        <t>Alice eats one bite from the right side and grows from 3" to 45'. What %change is this?</t>
+      </is>
+    </oc>
+    <nc r="H8" t="inlineStr">
+      <is>
+        <t>Alice eats one bite from the right side and grows from 3" (3 inches) to 45' (45 feet). What percentage change is this?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="G11:M13">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="2" sId="1">
+    <oc r="H24" t="inlineStr">
+      <is>
+        <t>Is there a combination of bites will bring Alice back exactly to her original height if she starts with one bite from the right?</t>
+      </is>
+    </oc>
+    <nc r="H24" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Is there a combination of bites will bring Alice back </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>exactly</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to her original height if she starts with one bite from the right?</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" action="delete"/>
+  <rcv guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{DD196E7D-601D-4E64-8A7B-63516489BCDA}" name="Richard Ketchersid" id="-1739552209" dateTime="2022-07-20T13:49:54"/>
   <userInfo guid="{469BFBDD-DFBC-4849-8BBE-E933315D76F2}" name="Richard Ketchersid" id="-1739542279" dateTime="2022-09-13T14:34:27"/>
+  <userInfo guid="{8F3E5DE7-53A7-4B6B-A474-2225533A3518}" name="Richard Ketchersid" id="-1739556822" dateTime="2023-01-18T18:03:26"/>
 </users>
 </file>
 
@@ -1619,14 +1713,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B298F987-F556-4CCC-9682-B9502E6E741F}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
@@ -1640,10 +1734,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="63"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1730,19 +1824,19 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="56">
+      <c r="G8" s="73">
         <v>1</v>
       </c>
-      <c r="H8" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65"/>
+      <c r="H8" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -1751,13 +1845,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
@@ -1781,15 +1875,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
@@ -1798,13 +1892,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
@@ -1813,28 +1907,28 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="61" t="s">
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1854,23 +1948,23 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="56">
+      <c r="G15" s="73">
         <v>2</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>29</v>
       </c>
@@ -1880,13 +1974,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="56"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="34">
         <v>1</v>
       </c>
@@ -1897,12 +1991,12 @@
     </row>
     <row r="17" spans="3:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="15"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="35"/>
       <c r="O17" s="38" t="s">
         <v>31</v>
@@ -1910,17 +2004,17 @@
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="3:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="56">
+      <c r="G18" s="73">
         <v>3</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="35">
         <v>2</v>
       </c>
@@ -1930,13 +2024,13 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="35"/>
       <c r="O19" s="38" t="s">
         <v>31</v>
@@ -1944,12 +2038,12 @@
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="8"/>
       <c r="N20" s="35">
         <v>3</v>
@@ -1960,18 +2054,18 @@
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
       <c r="N21" s="35"/>
       <c r="O21" s="38" t="s">
         <v>31</v>
@@ -1979,12 +2073,12 @@
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="3:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
       <c r="N22" s="35">
         <v>4</v>
       </c>
@@ -2001,17 +2095,17 @@
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
+      <c r="H24" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="35">
         <v>5</v>
       </c>
@@ -2021,13 +2115,13 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G25" s="60"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
       <c r="N25" s="35"/>
       <c r="O25" s="38" t="s">
         <v>31</v>
@@ -2036,12 +2130,12 @@
     </row>
     <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="8"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="35">
         <v>6</v>
       </c>
@@ -2051,12 +2145,12 @@
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="N27" s="35"/>
       <c r="O27" s="38" t="s">
         <v>31</v>
@@ -2064,12 +2158,12 @@
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
       <c r="N28" s="35">
         <v>7</v>
       </c>
@@ -2079,12 +2173,12 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
       <c r="N29" s="35"/>
       <c r="O29" s="38" t="s">
         <v>31</v>
@@ -2301,18 +2395,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" topLeftCell="A7">
-      <selection activeCell="C28" sqref="C28"/>
+    <customSheetView guid="{E36E2F1E-1066-4646-A7B6-29BBB77A34AA}" topLeftCell="A13">
+      <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G20:L22"/>
-    <mergeCell ref="C21:F21"/>
     <mergeCell ref="G27:L29"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="H8:M9"/>
@@ -2324,6 +2413,11 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H24:M26"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="C21:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId2" display="Click image to watch" xr:uid="{090108F4-421D-4156-AA51-0AF61ABD3220}"/>
@@ -2364,17 +2458,17 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="56">
+      <c r="G2" s="73">
         <v>1</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
@@ -2390,13 +2484,13 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -2420,15 +2514,15 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -2437,13 +2531,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -2452,13 +2546,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -2482,17 +2576,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="56">
+      <c r="G9" s="73">
         <v>2</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2510,13 +2604,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
       <c r="O10" s="18" t="s">
         <v>8</v>
       </c>
@@ -2533,12 +2627,12 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
@@ -2547,28 +2641,28 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="56">
+      <c r="G12" s="73">
         <v>3</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
@@ -2577,28 +2671,28 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="14"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2607,66 +2701,66 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G16" s="60"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G17" s="8"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
       <c r="N17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="80" t="s">
+      <c r="O17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
     </row>
     <row r="18" spans="7:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8"/>
@@ -2676,12 +2770,12 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G19" s="15"/>
@@ -2691,12 +2785,12 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H20" s="13"/>
@@ -2705,12 +2799,12 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H21" s="13"/>
@@ -2719,12 +2813,12 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2734,6 +2828,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="G5:M7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:M17"/>
@@ -2741,11 +2840,6 @@
     <mergeCell ref="O17:T21"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:M13"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="G5:M7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A14:E15" r:id="rId1" display="Click image to watch" xr:uid="{BFC502EB-DD2C-4539-A45C-66C80B84E5AB}"/>
@@ -2766,55 +2860,55 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="C3" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
     </row>
   </sheetData>
   <customSheetViews>
